--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18440" yWindow="5680" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="8000" yWindow="5660" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,7 +492,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/2book/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8000" yWindow="5660" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +92,10 @@
     <rPh sb="3" eb="4">
       <t>shi'bie</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,11 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -438,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -449,12 +448,12 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -465,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -476,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -487,7 +486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -495,7 +494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -506,18 +505,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -528,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -539,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -550,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -561,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -572,7 +571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -583,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -594,7 +593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -605,7 +604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -616,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -627,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -638,15 +637,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -640,7 +640,7 @@
     <row r="18" spans="1:3">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/2book/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +101,10 @@
   </si>
   <si>
     <t>RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sms</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,11 +175,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -437,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -448,12 +457,12 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -464,7 +473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -475,7 +484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -486,15 +495,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -505,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -516,18 +525,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>7</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -538,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -549,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -560,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -571,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
@@ -582,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>13</v>
       </c>
@@ -593,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>14</v>
       </c>
@@ -604,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>15</v>
       </c>
@@ -615,7 +624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>16</v>
       </c>
@@ -626,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>17</v>
       </c>
@@ -637,20 +646,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>132</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uba</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,8 +541,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -653,7 +653,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -534,7 +534,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -653,7 +653,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -653,7 +653,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -461,7 +461,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -653,7 +653,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>uba</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>poc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +465,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,11 +556,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -653,7 +657,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="6000" yWindow="1320" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,10 @@
   </si>
   <si>
     <t>poc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opensoc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +469,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,11 +571,11 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
+      <c r="A10" t="s">
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -657,7 +661,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -564,7 +564,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -661,7 +661,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="1320" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -661,7 +661,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>opensoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dga</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +473,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,11 +586,11 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>11</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -661,7 +665,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -590,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -665,7 +665,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/2book/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +116,14 @@
   </si>
   <si>
     <t>dga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶意文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,11 +194,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -462,7 +465,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,12 +476,12 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -489,7 +492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -500,7 +503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -511,7 +514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -519,7 +522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -530,7 +533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -541,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -552,7 +555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -563,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -574,7 +577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -585,7 +588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -596,29 +599,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -629,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -640,7 +643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -651,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -662,15 +665,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="B18">
         <f>SUM(B1:B17)</f>
-        <v>260</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/doc/字数统计.xlsx
+++ b/doc/字数统计.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu.yan/Desktop/code/2book/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="8000" yWindow="5620" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +125,10 @@
   </si>
   <si>
     <t>恶意文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,11 +199,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -465,7 +470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -473,17 +478,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1">
         <v>35</v>
@@ -492,9 +497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -503,28 +508,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -533,9 +538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -544,20 +549,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>24</v>
@@ -566,9 +571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>19</v>
@@ -577,9 +582,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>41</v>
@@ -588,9 +593,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -599,9 +604,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -610,9 +615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -621,64 +626,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>14</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>15</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="B18">
-        <f>SUM(B1:B17)</f>
-        <v>280</v>
+        <f>SUM(B1:B14)</f>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>